--- a/SDK/加速度/加速度接口测试报告.xlsx
+++ b/SDK/加速度/加速度接口测试报告.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>测试地点：</t>
   </si>
@@ -83,18 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>读取Excel中的数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataTable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel的文件路径和Sheet页的名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Process</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -148,13 +136,37 @@
   </si>
   <si>
     <t>ProcessPeak</t>
+  </si>
+  <si>
+    <t>{"fs":2000,"upperFreq":500.0,"lowerFreq":20.0,"windowLen":160,"upperChannelFreq":[20.0,10.0,10.0,20.0,20.0],"lowerChannelFreq":[0.2,0.2,0.2,0.2,0.2],"exportPath":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\","path":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\CitData_160612060534_CHSS_11.cit"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\CitData_160612060534_CHSS_11_11.cit"}</t>
+  </si>
+  <si>
+    <t>{"sectionLen":160,"exportPath":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\","isCreateIdf":false,"path":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\CitData_160612060534_CHSS_11_11.cit"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\test\\CitData_160612060534_CHSS_11_11_Rms.idf"}</t>
+  </si>
+  <si>
+    <t>{"path":"H:\\工作文件汇总\\铁科院\\程序\\离线加速度\\离线加速度dll\\测试\\CitData_170907214945_CGZX_11_Rms.idf"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":"{\"IdfFilePath\":\"H:\\\\工作文件汇总\\\\铁科院\\\\程序\\\\离线加速度\\\\离线加速度dll\\\\测试\\\\CitData_170907214945_CGZX_11_Rms.idf\",\"AvgResult\":\"[{\\\"ChannelNameCn\\\":\\\"左轴横\\\",\\\"ChannelNameEn\\\":\\\"AB_Lt\\\",\\\"AvgRms\\\":2.219,\\\"AvgSpd\\\":190.855},{\\\"ChannelNameCn\\\":\\\"左轴垂\\\",\\\"ChannelNameEn\\\":\\\"AB_Vt_L\\\",\\\"AvgRms\\\":2.71,\\\"AvgSpd\\\":190.855},{\\\"ChannelNameCn\\\":\\\"右轴垂\\\",\\\"ChannelNameEn\\\":\\\"AB_Vt_R\\\",\\\"AvgRms\\\":2.357,\\\"AvgSpd\\\":190.855}]\"}"}</t>
+  </si>
+  <si>
+    <t>{"segavg":0.0,"rmsData":null,"segavgs":[0.673,0.786,0.819],"path":"H:\\\\工作文件汇总\\\\铁科院\\\\程序\\\\离线加速度\\\\cit\\\\CitData_160612060534_CHSS_11_11_Rms.idf"}</t>
+  </si>
+  <si>
+    <t>{"flag":1,"msg":"Success","data":""}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +262,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -423,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +471,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -475,14 +504,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -793,7 +816,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,109 +826,108 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
     <col min="6" max="6" width="34.875" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="32.125" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
     <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -939,30 +961,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>28</v>
+      <c r="B9" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>13</v>
@@ -971,28 +993,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>13</v>
@@ -1001,28 +1023,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>13</v>
@@ -1031,28 +1053,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="81" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>13</v>
@@ -1105,102 +1127,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1239,25 +1261,25 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>13</v>
